--- a/results/mnist_training/results_ewc_mnist.xlsx
+++ b/results/mnist_training/results_ewc_mnist.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8090851324796676</v>
+        <v>0.8755737741788229</v>
       </c>
       <c r="D3">
-        <v>0.3153647184371948</v>
+        <v>0.3152797818183899</v>
       </c>
       <c r="E3">
-        <v>49.55500030517578</v>
+        <v>50.59</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.1897404734134674</v>
+        <v>0.2025281940460205</v>
       </c>
       <c r="J3">
-        <v>94.06999969482422</v>
+        <v>93.72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3551834178467592</v>
+        <v>0.3722143643597762</v>
       </c>
       <c r="D4">
-        <v>0.3169474303722382</v>
+        <v>0.2702022194862366</v>
       </c>
       <c r="E4">
-        <v>50.77999877929688</v>
+        <v>51.69</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>4.39931088256836</v>
+        <v>4.56769575805664</v>
       </c>
       <c r="J4">
-        <v>5.039999961853027</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.273044406970342</v>
+        <v>0.2921124638617039</v>
       </c>
       <c r="D5">
-        <v>0.3049196004867554</v>
+        <v>0.2784070670604706</v>
       </c>
       <c r="E5">
-        <v>51.02499771118164</v>
+        <v>51.615</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.1192279610276222</v>
+        <v>0.1236686964511871</v>
       </c>
       <c r="J5">
-        <v>96.40999603271484</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2410270160684983</v>
+        <v>0.2564035746703545</v>
       </c>
       <c r="D6">
-        <v>0.2818234860897064</v>
+        <v>0.2763143181800842</v>
       </c>
       <c r="E6">
-        <v>51.59500122070312</v>
+        <v>51.605</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3.904830932617188</v>
+        <v>4.381146160888671</v>
       </c>
       <c r="J6">
-        <v>5.150000095367432</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2108755144476891</v>
+        <v>0.2346193367739519</v>
       </c>
       <c r="D7">
-        <v>0.2628649473190308</v>
+        <v>0.2590230703353882</v>
       </c>
       <c r="E7">
-        <v>51.34999847412109</v>
+        <v>50.63500000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.08731953225731849</v>
+        <v>0.09489055513143539</v>
       </c>
       <c r="J7">
-        <v>97.18999481201172</v>
+        <v>97.14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1956716734170914</v>
+        <v>0.2143199914693832</v>
       </c>
       <c r="D8">
-        <v>0.2780958116054535</v>
+        <v>0.2380787283182144</v>
       </c>
       <c r="E8">
-        <v>51.79500198364258</v>
+        <v>51.295</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>4.210018371582032</v>
+        <v>4.099633660888672</v>
       </c>
       <c r="J8">
-        <v>4.859999656677246</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1846026199807723</v>
+        <v>0.2067245062192281</v>
       </c>
       <c r="D9">
-        <v>0.2694907486438751</v>
+        <v>0.2557908594608307</v>
       </c>
       <c r="E9">
-        <v>51.75</v>
+        <v>51.555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.076401146748662</v>
+        <v>0.07903605836033821</v>
       </c>
       <c r="J9">
-        <v>97.5</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1744681875407696</v>
+        <v>0.1884636021157106</v>
       </c>
       <c r="D10">
-        <v>0.2610358893871307</v>
+        <v>0.2587184607982635</v>
       </c>
       <c r="E10">
-        <v>52.06999969482422</v>
+        <v>51.7</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>3.773944537353516</v>
+        <v>4.142515563964844</v>
       </c>
       <c r="J10">
-        <v>5.690000057220459</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1645072605957588</v>
+        <v>0.1891913833717505</v>
       </c>
       <c r="D11">
-        <v>0.253189742565155</v>
+        <v>0.2452877461910248</v>
       </c>
       <c r="E11">
-        <v>52.61499786376953</v>
+        <v>53.295</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.07128016363680363</v>
+        <v>0.07657571572661399</v>
       </c>
       <c r="J11">
-        <v>97.62999725341797</v>
+        <v>97.51000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.15791967343539</v>
+        <v>0.1734994382162889</v>
       </c>
       <c r="D12">
-        <v>0.2381453067064285</v>
+        <v>0.2368446290493011</v>
       </c>
       <c r="E12">
-        <v>53.70499801635742</v>
+        <v>52.95</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>3.955439971923828</v>
+        <v>3.988142742919922</v>
       </c>
       <c r="J12">
-        <v>5.069999694824219</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1502792983750502</v>
+        <v>0.1698895178859433</v>
       </c>
       <c r="D13">
-        <v>0.2703472375869751</v>
+        <v>0.2522111237049103</v>
       </c>
       <c r="E13">
-        <v>53.16500091552734</v>
+        <v>53.33</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.06228075165674091</v>
+        <v>0.06598443717360497</v>
       </c>
       <c r="J13">
-        <v>98.04000091552734</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1442487482974927</v>
+        <v>0.1656940743078788</v>
       </c>
       <c r="D14">
-        <v>0.2531335949897766</v>
+        <v>0.2264820039272308</v>
       </c>
       <c r="E14">
-        <v>53.11999893188477</v>
+        <v>53.215</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>3.886663458251953</v>
+        <v>4.333605102539062</v>
       </c>
       <c r="J14">
-        <v>5.549999713897705</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1412829470882813</v>
+        <v>0.1579259843875964</v>
       </c>
       <c r="D15">
-        <v>0.2566025853157043</v>
+        <v>0.2199485749006271</v>
       </c>
       <c r="E15">
-        <v>55.11999893188477</v>
+        <v>53.055</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.06011252361610532</v>
+        <v>0.06208999619632959</v>
       </c>
       <c r="J15">
-        <v>98.08999633789062</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1369373502209782</v>
+        <v>0.1515820073212187</v>
       </c>
       <c r="D16">
-        <v>0.2394969761371613</v>
+        <v>0.2179615050554276</v>
       </c>
       <c r="E16">
-        <v>53.34000015258789</v>
+        <v>52.965</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>4.040785577392578</v>
+        <v>3.989723114013672</v>
       </c>
       <c r="J16">
-        <v>5.409999847412109</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1336503770078222</v>
+        <v>0.1486235603565971</v>
       </c>
       <c r="D17">
-        <v>0.2688103318214417</v>
+        <v>0.2291502505540848</v>
       </c>
       <c r="E17">
-        <v>54.43499755859375</v>
+        <v>53.26000000000001</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.05436366053298116</v>
+        <v>0.05869590276181698</v>
       </c>
       <c r="J17">
-        <v>98.30999755859375</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1442672703042626</v>
+        <v>0.1435982306798299</v>
       </c>
       <c r="D18">
-        <v>0.2514300644397736</v>
+        <v>0.2302685976028442</v>
       </c>
       <c r="E18">
-        <v>53</v>
+        <v>52.925</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>3.896026800537109</v>
+        <v>3.993237152099609</v>
       </c>
       <c r="J18">
-        <v>5.829999923706055</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1370864763731758</v>
+        <v>0.1437077839548389</v>
       </c>
       <c r="D19">
-        <v>0.2575261294841766</v>
+        <v>0.2233340293169022</v>
       </c>
       <c r="E19">
-        <v>53.83999633789062</v>
+        <v>52.67</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.05271697194576264</v>
+        <v>0.06149851001054048</v>
       </c>
       <c r="J19">
-        <v>98.29999542236328</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1389412824188669</v>
+        <v>0.1407580081000924</v>
       </c>
       <c r="D20">
-        <v>0.2507240772247314</v>
+        <v>0.2292065769433975</v>
       </c>
       <c r="E20">
-        <v>53.30999755859375</v>
+        <v>53.615</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>3.968035815429687</v>
+        <v>4.016324377441406</v>
       </c>
       <c r="J20">
-        <v>6.929999828338623</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.133706860691309</v>
+        <v>0.136619339423875</v>
       </c>
       <c r="D21">
-        <v>0.2572626173496246</v>
+        <v>0.2307466864585876</v>
       </c>
       <c r="E21">
-        <v>52.5099983215332</v>
+        <v>53.53</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.04757821737229824</v>
+        <v>0.05527418448925019</v>
       </c>
       <c r="J21">
-        <v>98.48999786376953</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.133714354361097</v>
+        <v>0.1399350778882702</v>
       </c>
       <c r="D22">
-        <v>0.2494987547397614</v>
+        <v>0.2256159335374832</v>
       </c>
       <c r="E22">
-        <v>53.43499755859375</v>
+        <v>53.265</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>3.8089673828125</v>
+        <v>4.0693876953125</v>
       </c>
       <c r="J22">
-        <v>8.920000076293945</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1480889832849304</v>
+        <v>0.138043664979438</v>
       </c>
       <c r="D23">
-        <v>0.2470480799674988</v>
+        <v>0.2258199751377106</v>
       </c>
       <c r="E23">
-        <v>53.06499862670898</v>
+        <v>53.235</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.04492309062406421</v>
+        <v>0.0533018518216908</v>
       </c>
       <c r="J23">
-        <v>98.54000091552734</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1436177975932757</v>
+        <v>0.1378708046178023</v>
       </c>
       <c r="D24">
-        <v>0.248455822467804</v>
+        <v>0.2256675213575363</v>
       </c>
       <c r="E24">
-        <v>52.9900016784668</v>
+        <v>53.335</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>3.961555584716797</v>
+        <v>4.242519659423828</v>
       </c>
       <c r="J24">
-        <v>7.789999961853027</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1394640472407142</v>
+        <v>0.1328395140046875</v>
       </c>
       <c r="D25">
-        <v>0.2498952448368073</v>
+        <v>0.2247432917356491</v>
       </c>
       <c r="E25">
-        <v>52.97000122070312</v>
+        <v>53.215</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.04476216627880931</v>
+        <v>0.05028725490048528</v>
       </c>
       <c r="J25">
-        <v>98.61000061035156</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.137389760799706</v>
+        <v>0.1338051990916332</v>
       </c>
       <c r="D26">
-        <v>0.2529487013816833</v>
+        <v>0.217233270406723</v>
       </c>
       <c r="E26">
-        <v>53.02000045776367</v>
+        <v>53.45500000000001</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>3.800040295410156</v>
+        <v>3.980756158447265</v>
       </c>
       <c r="J26">
-        <v>7.62999963760376</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1409975914657116</v>
+        <v>0.1301494668548306</v>
       </c>
       <c r="D27">
-        <v>0.2516747117042542</v>
+        <v>0.233480229973793</v>
       </c>
       <c r="E27">
-        <v>52.77499771118164</v>
+        <v>53.55</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.04350993878170848</v>
+        <v>0.04968568633310497</v>
       </c>
       <c r="J27">
-        <v>98.6199951171875</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.150641342078646</v>
+        <v>0.1323259810730815</v>
       </c>
       <c r="D28">
-        <v>0.241343766450882</v>
+        <v>0.2279736548662186</v>
       </c>
       <c r="E28">
-        <v>53.44499969482422</v>
+        <v>53.135</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>3.973369305419922</v>
+        <v>4.238149694824219</v>
       </c>
       <c r="J28">
-        <v>11.61999988555908</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1447748732815186</v>
+        <v>0.130195364219447</v>
       </c>
       <c r="D29">
-        <v>0.2437683492898941</v>
+        <v>0.2312063574790955</v>
       </c>
       <c r="E29">
-        <v>53.25499725341797</v>
+        <v>53.385</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.04114146780483425</v>
+        <v>0.04638855822980404</v>
       </c>
       <c r="J29">
-        <v>98.59999847412109</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1430135890593131</v>
+        <v>0.1320803374548753</v>
       </c>
       <c r="D30">
-        <v>0.2452671825885773</v>
+        <v>0.2277850955724716</v>
       </c>
       <c r="E30">
-        <v>53.13999938964844</v>
+        <v>53.415</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>3.685375170898438</v>
+        <v>4.086271215820313</v>
       </c>
       <c r="J30">
-        <v>8.079999923706055</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1461536619315545</v>
+        <v>0.1241642737388611</v>
       </c>
       <c r="D31">
-        <v>0.2460985034704208</v>
+        <v>0.2308738082647324</v>
       </c>
       <c r="E31">
-        <v>53.125</v>
+        <v>53.17</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.04333012445755303</v>
+        <v>0.04530159537605941</v>
       </c>
       <c r="J31">
-        <v>98.63999938964844</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1446919084340334</v>
+        <v>0.130279453334709</v>
       </c>
       <c r="D32">
-        <v>0.2474183142185211</v>
+        <v>0.2237708270549774</v>
       </c>
       <c r="E32">
-        <v>53.09999847412109</v>
+        <v>53.37</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>4.265640692138672</v>
+        <v>4.089073162841797</v>
       </c>
       <c r="J32">
-        <v>10.22999954223633</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1502282577256362</v>
+        <v>0.1322643393153946</v>
       </c>
       <c r="D33">
-        <v>0.239014059305191</v>
+        <v>0.2256209254264832</v>
       </c>
       <c r="E33">
-        <v>53.57999801635742</v>
+        <v>53.335</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.04607393367141485</v>
+        <v>0.0424174213770777</v>
       </c>
       <c r="J33">
-        <v>98.5</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1529631119469801</v>
+        <v>0.1309720072646936</v>
       </c>
       <c r="D34">
-        <v>0.2397455722093582</v>
+        <v>0.2245699763298035</v>
       </c>
       <c r="E34">
-        <v>53.52499771118164</v>
+        <v>53.31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>3.944156616210937</v>
+        <v>4.306230084228516</v>
       </c>
       <c r="J34">
-        <v>7.5</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.1504725956668456</v>
+        <v>0.1287210882703463</v>
       </c>
       <c r="D35">
-        <v>0.2404561191797256</v>
+        <v>0.2293028980493546</v>
       </c>
       <c r="E35">
-        <v>53.47999954223633</v>
+        <v>53.275</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0447148964073509</v>
+        <v>0.04462733852565288</v>
       </c>
       <c r="J35">
-        <v>98.54999542236328</v>
+        <v>98.53</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1474589526529113</v>
+        <v>0.130889259253939</v>
       </c>
       <c r="D36">
-        <v>0.2412558197975159</v>
+        <v>0.2302568256855011</v>
       </c>
       <c r="E36">
-        <v>53.46499633789062</v>
+        <v>53.285</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>3.967566223144531</v>
+        <v>4.410423559570313</v>
       </c>
       <c r="J36">
-        <v>9.130000114440918</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.1490914313991865</v>
+        <v>0.1292942776034276</v>
       </c>
       <c r="D37">
-        <v>0.2417757958173752</v>
+        <v>0.2192723900079727</v>
       </c>
       <c r="E37">
-        <v>53.37499618530273</v>
+        <v>53.495</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,13 +1465,28 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.04488809576183558</v>
+        <v>0.04247838273178786</v>
       </c>
       <c r="J37">
-        <v>98.54999542236328</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="38" spans="1:10">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.1297087812672059</v>
+      </c>
+      <c r="D38">
+        <v>0.2200189381837845</v>
+      </c>
+      <c r="E38">
+        <v>53.48999999999999</v>
+      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -1479,13 +1494,28 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>3.954538726806641</v>
+        <v>4.296904577636719</v>
       </c>
       <c r="J38">
-        <v>8.069999694824219</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.1304465493063132</v>
+      </c>
+      <c r="D39">
+        <v>0.2218045592308044</v>
+      </c>
+      <c r="E39">
+        <v>53.495</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -1493,13 +1523,28 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.04417523763477802</v>
+        <v>0.04036223891722038</v>
       </c>
       <c r="J39">
-        <v>98.59999847412109</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="40" spans="1:10">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.1291243519013127</v>
+      </c>
+      <c r="D40">
+        <v>0.2217376828193665</v>
+      </c>
+      <c r="E40">
+        <v>53.425</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1507,13 +1552,28 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>3.954403546142578</v>
+        <v>4.206384582519531</v>
       </c>
       <c r="J40">
-        <v>6.419999599456787</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="41" spans="1:10">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.1293243455514312</v>
+      </c>
+      <c r="D41">
+        <v>0.2224500775337219</v>
+      </c>
+      <c r="E41">
+        <v>53.455</v>
+      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -1521,13 +1581,28 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.04424639850072563</v>
+        <v>0.04484141976106912</v>
       </c>
       <c r="J41">
-        <v>98.66999816894531</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="42" spans="1:10">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.1292069052904844</v>
+      </c>
+      <c r="D42">
+        <v>0.2175372689962387</v>
+      </c>
+      <c r="E42">
+        <v>53.47</v>
+      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -1535,13 +1610,28 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>3.929440655517578</v>
+        <v>4.289983184814453</v>
       </c>
       <c r="J42">
-        <v>8.199999809265137</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="43" spans="1:10">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.1290709615622957</v>
+      </c>
+      <c r="D43">
+        <v>0.2179723680019379</v>
+      </c>
+      <c r="E43">
+        <v>53.485</v>
+      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -1549,13 +1639,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.04650046023353934</v>
+        <v>0.04423872581515461</v>
       </c>
       <c r="J43">
-        <v>98.52999877929688</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.1311055767784516</v>
+      </c>
+      <c r="D44">
+        <v>0.218182161450386</v>
+      </c>
+      <c r="E44">
+        <v>53.495</v>
+      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -1563,13 +1668,28 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>3.822823626708984</v>
+        <v>4.158838507080078</v>
       </c>
       <c r="J44">
-        <v>7.599999904632568</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="45" spans="1:10">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.1321725727617741</v>
+      </c>
+      <c r="D45">
+        <v>0.218439057469368</v>
+      </c>
+      <c r="E45">
+        <v>53.52</v>
+      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -1577,13 +1697,28 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.04635481959432364</v>
+        <v>0.04317841832190752</v>
       </c>
       <c r="J45">
-        <v>98.5</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="46" spans="1:10">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.1327227557450533</v>
+      </c>
+      <c r="D46">
+        <v>0.2186458259820938</v>
+      </c>
+      <c r="E46">
+        <v>53.515</v>
+      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -1591,10 +1726,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>3.866909735107422</v>
+        <v>4.174282666015625</v>
       </c>
       <c r="J46">
-        <v>7.480000019073486</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1605,10 +1740,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.04613144145123661</v>
+        <v>0.04257649042084813</v>
       </c>
       <c r="J47">
-        <v>98.52999877929688</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1619,10 +1754,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>3.911065435791016</v>
+        <v>4.279096600341797</v>
       </c>
       <c r="J48">
-        <v>7.409999847412109</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1633,10 +1768,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.04615448604300618</v>
+        <v>0.04197539831921458</v>
       </c>
       <c r="J49">
-        <v>98.5</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1647,10 +1782,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>3.938585900878906</v>
+        <v>4.174012103271484</v>
       </c>
       <c r="J50">
-        <v>7.539999961853027</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1661,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.04529927187375724</v>
+        <v>0.04188630682118237</v>
       </c>
       <c r="J51">
-        <v>98.52999877929688</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1675,10 +1810,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>3.920371997070312</v>
+        <v>4.304024584960938</v>
       </c>
       <c r="J52">
-        <v>7.019999980926514</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1689,10 +1824,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.04676471661999822</v>
+        <v>0.041455947249569</v>
       </c>
       <c r="J53">
-        <v>98.54000091552734</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1703,10 +1838,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>3.80128511352539</v>
+        <v>4.345622833251953</v>
       </c>
       <c r="J54">
-        <v>8.34999942779541</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1717,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0464653156273067</v>
+        <v>0.041276864448376</v>
       </c>
       <c r="J55">
-        <v>98.54999542236328</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1731,10 +1866,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>3.809862231445313</v>
+        <v>4.207680560302735</v>
       </c>
       <c r="J56">
-        <v>7.959999561309814</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1745,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.04621432785019278</v>
+        <v>0.04029621175322682</v>
       </c>
       <c r="J57">
-        <v>98.52999877929688</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1759,10 +1894,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>3.813230603027344</v>
+        <v>4.164945739746094</v>
       </c>
       <c r="J58">
-        <v>7.75</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1773,10 +1908,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.04615176972970367</v>
+        <v>0.04128212664593011</v>
       </c>
       <c r="J59">
-        <v>98.52999877929688</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1787,10 +1922,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>3.820339685058594</v>
+        <v>4.364961499023438</v>
       </c>
       <c r="J60">
-        <v>7.71999979019165</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1801,10 +1936,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.04625582565963268</v>
+        <v>0.04185957594569772</v>
       </c>
       <c r="J61">
-        <v>98.52999877929688</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1815,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>3.834383605957031</v>
+        <v>4.222491625976563</v>
       </c>
       <c r="J62">
-        <v>7.669999599456787</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -1829,10 +1964,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.04730973893329501</v>
+        <v>0.04191256928201765</v>
       </c>
       <c r="J63">
-        <v>98.47999572753906</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1843,10 +1978,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>3.806051684570313</v>
+        <v>4.254975372314453</v>
       </c>
       <c r="J64">
-        <v>8.679999351501465</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -1857,10 +1992,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.04709749100208283</v>
+        <v>0.04168090852107853</v>
       </c>
       <c r="J65">
-        <v>98.50999450683594</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1871,10 +2006,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>3.802784594726563</v>
+        <v>4.263734405517578</v>
       </c>
       <c r="J66">
-        <v>8.539999961853027</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -1885,10 +2020,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0469426362760365</v>
+        <v>0.04192999628391117</v>
       </c>
       <c r="J67">
-        <v>98.52999877929688</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1899,10 +2034,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>3.801417297363281</v>
+        <v>4.272391131591797</v>
       </c>
       <c r="J68">
-        <v>8.429999351501465</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -1913,10 +2048,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.04679096846207977</v>
+        <v>0.04161093450505286</v>
       </c>
       <c r="J69">
-        <v>98.51999664306641</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -1927,10 +2062,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>3.800666638183594</v>
+        <v>4.283544610595703</v>
       </c>
       <c r="J70">
-        <v>8.409999847412109</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -1941,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0466994814440608</v>
+        <v>0.04194164481759071</v>
       </c>
       <c r="J71">
-        <v>98.50999450683594</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -1955,10 +2090,262 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>3.802187664794922</v>
+        <v>4.189592993164062</v>
       </c>
       <c r="J72">
-        <v>8.239999771118164</v>
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>36</v>
+      </c>
+      <c r="I73">
+        <v>0.04185875114873051</v>
+      </c>
+      <c r="J73">
+        <v>98.70999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>36</v>
+      </c>
+      <c r="I74">
+        <v>4.207760766601562</v>
+      </c>
+      <c r="J74">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>0.04188554723858833</v>
+      </c>
+      <c r="J75">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>37</v>
+      </c>
+      <c r="I76">
+        <v>4.2174029296875</v>
+      </c>
+      <c r="J76">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>38</v>
+      </c>
+      <c r="I77">
+        <v>0.04184780941493809</v>
+      </c>
+      <c r="J77">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>38</v>
+      </c>
+      <c r="I78">
+        <v>4.227606854248047</v>
+      </c>
+      <c r="J78">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>39</v>
+      </c>
+      <c r="I79">
+        <v>0.0419185106035322</v>
+      </c>
+      <c r="J79">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>39</v>
+      </c>
+      <c r="I80">
+        <v>4.240173504638672</v>
+      </c>
+      <c r="J80">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0.04195088422633707</v>
+      </c>
+      <c r="J81">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>4.178875268554687</v>
+      </c>
+      <c r="J82">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>41</v>
+      </c>
+      <c r="I83">
+        <v>0.04194594667181373</v>
+      </c>
+      <c r="J83">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>41</v>
+      </c>
+      <c r="I84">
+        <v>4.18268349609375</v>
+      </c>
+      <c r="J84">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.04194131631702185</v>
+      </c>
+      <c r="J85">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>4.18423521118164</v>
+      </c>
+      <c r="J86">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>43</v>
+      </c>
+      <c r="I87">
+        <v>0.04195654295124113</v>
+      </c>
+      <c r="J87">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <v>4.186966174316407</v>
+      </c>
+      <c r="J88">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>0.04195787383802235</v>
+      </c>
+      <c r="J89">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>44</v>
+      </c>
+      <c r="I90">
+        <v>4.190207946777344</v>
+      </c>
+      <c r="J90">
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2031,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.771989750862121</v>
+        <v>2.705483404795329</v>
       </c>
       <c r="D3">
-        <v>1.600851535797119</v>
+        <v>1.15177047252655</v>
       </c>
       <c r="E3">
-        <v>69.91999816894531</v>
+        <v>69.795</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2046,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.1341158418655395</v>
+        <v>0.7954584804534912</v>
       </c>
       <c r="J3">
-        <v>96.89999389648438</v>
+        <v>77.33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2060,13 +2447,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.663961851596832</v>
+        <v>2.074592829545339</v>
       </c>
       <c r="D4">
-        <v>1.112452030181885</v>
+        <v>0.7986778020858765</v>
       </c>
       <c r="E4">
-        <v>76.66999816894531</v>
+        <v>69.29499999999999</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2075,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.540382052612305</v>
+        <v>1.114589562988281</v>
       </c>
       <c r="J4">
-        <v>42.93999862670898</v>
+        <v>62.26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2089,13 +2476,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.404566494226456</v>
+        <v>1.580558261473973</v>
       </c>
       <c r="D5">
-        <v>0.9803017377853394</v>
+        <v>0.7658942341804504</v>
       </c>
       <c r="E5">
-        <v>76.00999450683594</v>
+        <v>74.29499999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2104,10 +2491,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.327356254196167</v>
+        <v>1.038427416992187</v>
       </c>
       <c r="J5">
-        <v>89.93999481201172</v>
+        <v>66.31999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2118,13 +2505,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.296227179765701</v>
+        <v>1.36744319319725</v>
       </c>
       <c r="D6">
-        <v>0.8860152959823608</v>
+        <v>0.7511390447616577</v>
       </c>
       <c r="E6">
-        <v>68.96499633789062</v>
+        <v>69.755</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2133,10 +2520,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1.081978610229492</v>
+        <v>0.7931554107666016</v>
       </c>
       <c r="J6">
-        <v>63.39999771118164</v>
+        <v>72.27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2147,13 +2534,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.225211220184962</v>
+        <v>1.338212720950445</v>
       </c>
       <c r="D7">
-        <v>0.8219830393791199</v>
+        <v>0.7185879945755005</v>
       </c>
       <c r="E7">
-        <v>67.3699951171875</v>
+        <v>68.08499999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2162,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.4997780303955078</v>
+        <v>0.7318948417663574</v>
       </c>
       <c r="J7">
-        <v>83.79999542236328</v>
+        <v>76.81999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2176,13 +2563,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.182679857412974</v>
+        <v>1.301958877245585</v>
       </c>
       <c r="D8">
-        <v>0.7993517518043518</v>
+        <v>0.7373875975608826</v>
       </c>
       <c r="E8">
-        <v>66.41999816894531</v>
+        <v>61.98</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2191,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.9677854278564453</v>
+        <v>0.7788759872436524</v>
       </c>
       <c r="J8">
-        <v>68.22000122070312</v>
+        <v>71.77</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2205,13 +2592,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.15040041466554</v>
+        <v>1.330999716917674</v>
       </c>
       <c r="D9">
-        <v>0.763866126537323</v>
+        <v>0.7070921063423157</v>
       </c>
       <c r="E9">
-        <v>66.45500183105469</v>
+        <v>66.52500000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2220,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.8550181098937988</v>
+        <v>0.9781573554992676</v>
       </c>
       <c r="J9">
-        <v>67.63999938964844</v>
+        <v>67.44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2234,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.117752039233844</v>
+        <v>1.312978743314743</v>
       </c>
       <c r="D10">
-        <v>0.7443378567695618</v>
+        <v>0.740456223487854</v>
       </c>
       <c r="E10">
-        <v>66.34999847412109</v>
+        <v>61.3</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2249,10 +2636,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.8813125762939453</v>
+        <v>0.7644919555664063</v>
       </c>
       <c r="J10">
-        <v>70.29000091552734</v>
+        <v>72.06999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2263,13 +2650,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.087762940128644</v>
+        <v>1.332635276317596</v>
       </c>
       <c r="D11">
-        <v>0.7192015647888184</v>
+        <v>0.7402030229568481</v>
       </c>
       <c r="E11">
-        <v>65.6199951171875</v>
+        <v>64.41</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2278,10 +2665,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>1.296810095214844</v>
+        <v>1.145456929016113</v>
       </c>
       <c r="J11">
-        <v>63.47999954223633</v>
+        <v>63.29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2292,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.069468149344126</v>
+        <v>1.317348128557205</v>
       </c>
       <c r="D12">
-        <v>0.7089216709136963</v>
+        <v>0.7225940227508545</v>
       </c>
       <c r="E12">
-        <v>65.10499572753906</v>
+        <v>63.495</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2307,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.8279496810913086</v>
+        <v>0.7565350433349609</v>
       </c>
       <c r="J12">
-        <v>71.25999450683594</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2321,13 +2708,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.050249599615733</v>
+        <v>1.355791971683502</v>
       </c>
       <c r="D13">
-        <v>0.6995136141777039</v>
+        <v>0.6813101172447205</v>
       </c>
       <c r="E13">
-        <v>64.32999420166016</v>
+        <v>61.08</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2336,10 +2723,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>1.738435708618164</v>
+        <v>1.549749011230469</v>
       </c>
       <c r="J13">
-        <v>60.59999847412109</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2350,13 +2737,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.036639907956123</v>
+        <v>1.343738787571589</v>
       </c>
       <c r="D14">
-        <v>0.6844747066497803</v>
+        <v>0.6996358036994934</v>
       </c>
       <c r="E14">
-        <v>64.25999450683594</v>
+        <v>65.77500000000001</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2365,10 +2752,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.8002943481445313</v>
+        <v>0.7388658744812012</v>
       </c>
       <c r="J14">
-        <v>72.23999786376953</v>
+        <v>73.14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2379,13 +2766,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.021702536940575</v>
+        <v>1.316429022153219</v>
       </c>
       <c r="D15">
-        <v>0.6813040375709534</v>
+        <v>0.6690681576728821</v>
       </c>
       <c r="E15">
-        <v>64.77499389648438</v>
+        <v>63.69</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2394,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.082648657226562</v>
+        <v>1.274339561462402</v>
       </c>
       <c r="J15">
-        <v>59.63999938964844</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2408,13 +2795,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012870338161786</v>
+        <v>1.316635885636012</v>
       </c>
       <c r="D16">
-        <v>0.6679739952087402</v>
+        <v>0.6844087839126587</v>
       </c>
       <c r="E16">
-        <v>63.50499725341797</v>
+        <v>64.925</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2423,10 +2810,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.769323927307129</v>
+        <v>0.7377007034301758</v>
       </c>
       <c r="J16">
-        <v>73.26999664306641</v>
+        <v>74.43000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2437,13 +2824,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001599273085594</v>
+        <v>1.308238797585169</v>
       </c>
       <c r="D17">
-        <v>0.6555691361427307</v>
+        <v>0.6901751756668091</v>
       </c>
       <c r="E17">
-        <v>63.12999725341797</v>
+        <v>64.095</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2452,10 +2839,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>2.247969866943359</v>
+        <v>1.645424314880371</v>
       </c>
       <c r="J17">
-        <v>58.91999816894531</v>
+        <v>49.89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2466,13 +2853,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.988332735101382</v>
+        <v>1.306153046687444</v>
       </c>
       <c r="D18">
-        <v>0.6549843549728394</v>
+        <v>0.7178719639778137</v>
       </c>
       <c r="E18">
-        <v>63.2449951171875</v>
+        <v>64.285</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2481,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.753433309173584</v>
+        <v>0.7446621864318848</v>
       </c>
       <c r="J18">
-        <v>73.77999877929688</v>
+        <v>72.70999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2495,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.986023256778717</v>
+        <v>1.340844832261403</v>
       </c>
       <c r="D19">
-        <v>0.6531195640563965</v>
+        <v>0.6774116158485413</v>
       </c>
       <c r="E19">
-        <v>64.51000213623047</v>
+        <v>67.3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2510,10 +2897,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>2.441317645263672</v>
+        <v>1.249908554077148</v>
       </c>
       <c r="J19">
-        <v>56.82999801635742</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2524,13 +2911,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.979828112522761</v>
+        <v>1.341935159365336</v>
       </c>
       <c r="D20">
-        <v>0.6572775840759277</v>
+        <v>0.7077838778495789</v>
       </c>
       <c r="E20">
-        <v>63.0099983215332</v>
+        <v>65.175</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2539,10 +2926,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.7303372184753418</v>
+        <v>0.7541622062683105</v>
       </c>
       <c r="J20">
-        <v>74.40999603271484</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2553,13 +2940,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.967134477297465</v>
+        <v>1.385082282622655</v>
       </c>
       <c r="D21">
-        <v>0.643368661403656</v>
+        <v>0.713951051235199</v>
       </c>
       <c r="E21">
-        <v>64.40999603271484</v>
+        <v>66.37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2568,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.621274069213867</v>
+        <v>1.323890197753906</v>
       </c>
       <c r="J21">
-        <v>56</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2582,13 +2969,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9627978964646657</v>
+        <v>1.345811390479406</v>
       </c>
       <c r="D22">
-        <v>0.6406170725822449</v>
+        <v>0.7178282737731934</v>
       </c>
       <c r="E22">
-        <v>62.71499633789062</v>
+        <v>67.245</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2597,10 +2984,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.7205145393371583</v>
+        <v>0.7235289657592774</v>
       </c>
       <c r="J22">
-        <v>74.20999908447266</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2611,13 +2998,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9520563761393229</v>
+        <v>1.347879017194112</v>
       </c>
       <c r="D23">
-        <v>0.6279149055480957</v>
+        <v>0.7312301993370056</v>
       </c>
       <c r="E23">
-        <v>62.45500183105469</v>
+        <v>66.08</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2626,10 +3013,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.796674783325195</v>
+        <v>1.547063528442383</v>
       </c>
       <c r="J23">
-        <v>54.21999740600586</v>
+        <v>47.96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2640,13 +3027,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9512567706902821</v>
+        <v>1.353740240335465</v>
       </c>
       <c r="D24">
-        <v>0.6398190855979919</v>
+        <v>0.7224316000938416</v>
       </c>
       <c r="E24">
-        <v>61.70500183105469</v>
+        <v>66.755</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2655,10 +3042,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.7103171356201172</v>
+        <v>0.7033466041564942</v>
       </c>
       <c r="J24">
-        <v>74.43999481201172</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2669,13 +3056,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9396113417545955</v>
+        <v>1.369010289907455</v>
       </c>
       <c r="D25">
-        <v>0.6227454543113708</v>
+        <v>0.7463310360908508</v>
       </c>
       <c r="E25">
-        <v>61.75499725341797</v>
+        <v>66.92</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2684,10 +3071,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>2.939208728027344</v>
+        <v>1.28814947052002</v>
       </c>
       <c r="J25">
-        <v>53.30999755859375</v>
+        <v>57.65</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2698,13 +3085,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9328228416045506</v>
+        <v>1.464545016288757</v>
       </c>
       <c r="D26">
-        <v>0.6212484240531921</v>
+        <v>0.6928787231445312</v>
       </c>
       <c r="E26">
-        <v>61.53499603271484</v>
+        <v>64.59</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2713,10 +3100,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.6967210289001465</v>
+        <v>0.7354115966796875</v>
       </c>
       <c r="J26">
-        <v>75.20999908447266</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2727,13 +3114,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9259551002581914</v>
+        <v>1.409668783346812</v>
       </c>
       <c r="D27">
-        <v>0.6148796081542969</v>
+        <v>0.7053290009498596</v>
       </c>
       <c r="E27">
-        <v>60.61000061035156</v>
+        <v>64.94499999999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2742,10 +3129,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>2.962668322753906</v>
+        <v>1.405346647644043</v>
       </c>
       <c r="J27">
-        <v>54.30999755859375</v>
+        <v>54.77</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2756,13 +3143,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9171759456396102</v>
+        <v>1.405507511695226</v>
       </c>
       <c r="D28">
-        <v>0.6192281246185303</v>
+        <v>0.711005687713623</v>
       </c>
       <c r="E28">
-        <v>60.375</v>
+        <v>65.985</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2771,10 +3158,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.6865077789306641</v>
+        <v>0.7130239219665527</v>
       </c>
       <c r="J28">
-        <v>75.23999786376953</v>
+        <v>72.61</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2785,13 +3172,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9149257822831471</v>
+        <v>1.393338341712952</v>
       </c>
       <c r="D29">
-        <v>0.6179863214492798</v>
+        <v>0.7215415239334106</v>
       </c>
       <c r="E29">
-        <v>60.20000076293945</v>
+        <v>66.22</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2800,10 +3187,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>3.142660137939453</v>
+        <v>1.297613401794434</v>
       </c>
       <c r="J29">
-        <v>51.52000045776367</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2814,13 +3201,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9155357736349106</v>
+        <v>1.379791150093079</v>
       </c>
       <c r="D30">
-        <v>0.6058847308158875</v>
+        <v>0.7232699394226074</v>
       </c>
       <c r="E30">
-        <v>59.11499786376953</v>
+        <v>66.435</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2829,10 +3216,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.678246109008789</v>
+        <v>0.7205933532714843</v>
       </c>
       <c r="J30">
-        <v>75.48999786376953</v>
+        <v>74.98</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2843,13 +3230,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.8987561051050822</v>
+        <v>1.518991214434306</v>
       </c>
       <c r="D31">
-        <v>0.6099033951759338</v>
+        <v>0.6805469989776611</v>
       </c>
       <c r="E31">
-        <v>58.63499450683594</v>
+        <v>63.915</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2858,10 +3245,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.175820593261719</v>
+        <v>1.254019978332519</v>
       </c>
       <c r="J31">
-        <v>50.86999893188477</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2872,13 +3259,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.895047508875529</v>
+        <v>1.496174958149592</v>
       </c>
       <c r="D32">
-        <v>0.6057993173599243</v>
+        <v>0.6868277192115784</v>
       </c>
       <c r="E32">
-        <v>56.85499954223633</v>
+        <v>64.105</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2887,10 +3274,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.6713768058776856</v>
+        <v>0.7158262283325195</v>
       </c>
       <c r="J32">
-        <v>75.38999938964844</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2901,13 +3288,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.8880511395136516</v>
+        <v>1.482088656425476</v>
       </c>
       <c r="D33">
-        <v>0.6042039394378662</v>
+        <v>0.6909533143043518</v>
       </c>
       <c r="E33">
-        <v>56.52999877929688</v>
+        <v>64.265</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2916,10 +3303,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>3.275841479492188</v>
+        <v>1.317878289794922</v>
       </c>
       <c r="J33">
-        <v>50.71999740600586</v>
+        <v>56.33</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2930,13 +3317,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.8866825352112452</v>
+        <v>1.468261241515477</v>
       </c>
       <c r="D34">
-        <v>0.6046724915504456</v>
+        <v>0.6936869621276855</v>
       </c>
       <c r="E34">
-        <v>56.58499908447266</v>
+        <v>64.27500000000001</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2945,10 +3332,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.6658637107849121</v>
+        <v>0.7179786216735839</v>
       </c>
       <c r="J34">
-        <v>75.76999664306641</v>
+        <v>72.23999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2959,13 +3346,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.8804529744386673</v>
+        <v>1.458296367327372</v>
       </c>
       <c r="D35">
-        <v>0.5916067361831665</v>
+        <v>0.6950682401657104</v>
       </c>
       <c r="E35">
-        <v>55.77999877929688</v>
+        <v>64.38500000000001</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2974,10 +3361,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>3.328355010986328</v>
+        <v>1.153677056884766</v>
       </c>
       <c r="J35">
-        <v>52.86999893188477</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2988,13 +3375,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8801276051998138</v>
+        <v>1.532468506097794</v>
       </c>
       <c r="D36">
-        <v>0.603573203086853</v>
+        <v>0.6721175312995911</v>
       </c>
       <c r="E36">
-        <v>56.26499938964844</v>
+        <v>63.735</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3003,10 +3390,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.6607848709106445</v>
+        <v>0.7123476593017578</v>
       </c>
       <c r="J36">
-        <v>76.15000152587891</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3017,13 +3404,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.8786013984680175</v>
+        <v>1.523227109114329</v>
       </c>
       <c r="D37">
-        <v>0.5823858380317688</v>
+        <v>0.6752672791481018</v>
       </c>
       <c r="E37">
-        <v>55.42499542236328</v>
+        <v>63.76000000000001</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3032,10 +3419,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>3.39141953125</v>
+        <v>1.356322860717774</v>
       </c>
       <c r="J37">
-        <v>49.91999816894531</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3046,13 +3433,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.8674813320239385</v>
+        <v>1.525574694474538</v>
       </c>
       <c r="D38">
-        <v>0.5850580334663391</v>
+        <v>0.6772916316986084</v>
       </c>
       <c r="E38">
-        <v>55.88499450683594</v>
+        <v>63.82000000000001</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3061,10 +3448,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.6606241737365722</v>
+        <v>0.7218884010314941</v>
       </c>
       <c r="J38">
-        <v>76.09999847412109</v>
+        <v>74.84999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3075,13 +3462,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.8673864074548086</v>
+        <v>1.513598250945409</v>
       </c>
       <c r="D39">
-        <v>0.5873156785964966</v>
+        <v>0.6791949868202209</v>
       </c>
       <c r="E39">
-        <v>55.90499877929688</v>
+        <v>63.90000000000001</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3090,10 +3477,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>3.452718286132813</v>
+        <v>1.182291146850586</v>
       </c>
       <c r="J39">
-        <v>52.44999694824219</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3104,13 +3491,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.8726092014710108</v>
+        <v>1.514286231597264</v>
       </c>
       <c r="D40">
-        <v>0.5864721536636353</v>
+        <v>0.68028324842453</v>
       </c>
       <c r="E40">
-        <v>54.88999938964844</v>
+        <v>63.915</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3119,28 +3506,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.6514526512145996</v>
+        <v>0.7428909309387207</v>
       </c>
       <c r="J40">
-        <v>76.3699951171875</v>
+        <v>72.44</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.8656005171934763</v>
-      </c>
-      <c r="D41">
-        <v>0.591391921043396</v>
-      </c>
-      <c r="E41">
-        <v>54.80999755859375</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3148,28 +3520,13 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>3.588198706054687</v>
+        <v>1.097681414031982</v>
       </c>
       <c r="J41">
-        <v>48.90999984741211</v>
+        <v>62.06</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.8638447099924087</v>
-      </c>
-      <c r="D42">
-        <v>0.6035308837890625</v>
-      </c>
-      <c r="E42">
-        <v>55.33499908447266</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -3177,28 +3534,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.6469994110107422</v>
+        <v>0.7522260116577149</v>
       </c>
       <c r="J42">
-        <v>76.51999664306641</v>
+        <v>72.43000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.8486636273066203</v>
-      </c>
-      <c r="D43">
-        <v>0.5887746810913086</v>
-      </c>
-      <c r="E43">
-        <v>55.72999954223633</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -3206,28 +3548,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>3.708292407226562</v>
+        <v>1.136793113708496</v>
       </c>
       <c r="J43">
-        <v>48.27000045776367</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.8475113805135092</v>
-      </c>
-      <c r="D44">
-        <v>0.5933928489685059</v>
-      </c>
-      <c r="E44">
-        <v>56.01000213623047</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -3235,28 +3562,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.6440714126586914</v>
+        <v>0.7664114242553711</v>
       </c>
       <c r="J44">
-        <v>76.63999938964844</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.8463286944230397</v>
-      </c>
-      <c r="D45">
-        <v>0.5936660766601562</v>
-      </c>
-      <c r="E45">
-        <v>55.62999725341797</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -3264,28 +3576,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>3.712078930664063</v>
+        <v>1.121553196716309</v>
       </c>
       <c r="J45">
-        <v>47.0099983215332</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.8437256560722987</v>
-      </c>
-      <c r="D46">
-        <v>0.5939790606498718</v>
-      </c>
-      <c r="E46">
-        <v>55.23999786376953</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -3293,28 +3590,13 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.6447876853942871</v>
+        <v>0.7687016204833984</v>
       </c>
       <c r="J46">
-        <v>76.40000152587891</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.8416350766023</v>
-      </c>
-      <c r="D47">
-        <v>0.5970171689987183</v>
-      </c>
-      <c r="E47">
-        <v>55.42499542236328</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -3322,28 +3604,13 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>3.7785220703125</v>
+        <v>1.07926707611084</v>
       </c>
       <c r="J47">
-        <v>46.56999969482422</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.8427677687009175</v>
-      </c>
-      <c r="D48">
-        <v>0.5877886414527893</v>
-      </c>
-      <c r="E48">
-        <v>55.44499969482422</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
@@ -3351,28 +3618,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.6391534362792969</v>
+        <v>0.7780646926879883</v>
       </c>
       <c r="J48">
-        <v>76.93999481201172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.8427972173690796</v>
-      </c>
-      <c r="D49">
-        <v>0.5883071422576904</v>
-      </c>
-      <c r="E49">
-        <v>55.39499664306641</v>
-      </c>
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>0</v>
       </c>
@@ -3380,28 +3632,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>3.883302075195313</v>
+        <v>1.320414082336426</v>
       </c>
       <c r="J49">
-        <v>46.09000015258789</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.8429201114177703</v>
-      </c>
-      <c r="D50">
-        <v>0.5890398621559143</v>
-      </c>
-      <c r="E50">
-        <v>55.34499740600586</v>
-      </c>
+        <v>56.66</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>1</v>
       </c>
@@ -3409,28 +3646,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.6357891204833984</v>
+        <v>0.7273028327941895</v>
       </c>
       <c r="J50">
-        <v>76.97999572753906</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.8433679950237274</v>
-      </c>
-      <c r="D51">
-        <v>0.5893225073814392</v>
-      </c>
-      <c r="E51">
-        <v>55.32500076293945</v>
-      </c>
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>0</v>
       </c>
@@ -3438,28 +3660,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>3.947503509521484</v>
+        <v>1.274977383422851</v>
       </c>
       <c r="J51">
-        <v>44.20000076293945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.841182444691658</v>
-      </c>
-      <c r="D52">
-        <v>0.5897165536880493</v>
-      </c>
-      <c r="E52">
-        <v>55.36499786376953</v>
-      </c>
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>1</v>
       </c>
@@ -3467,28 +3674,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.6302204025268555</v>
+        <v>0.7388798507690429</v>
       </c>
       <c r="J52">
-        <v>77.01999664306641</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.8515660766760508</v>
-      </c>
-      <c r="D53">
-        <v>0.5848971009254456</v>
-      </c>
-      <c r="E53">
-        <v>55.40999984741211</v>
-      </c>
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>0</v>
       </c>
@@ -3496,28 +3688,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>3.974088391113281</v>
+        <v>1.210470756530762</v>
       </c>
       <c r="J53">
-        <v>43.90999984741211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.8433778921763102</v>
-      </c>
-      <c r="D54">
-        <v>0.5865597724914551</v>
-      </c>
-      <c r="E54">
-        <v>55.44499969482422</v>
-      </c>
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>1</v>
       </c>
@@ -3525,28 +3702,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.6290738418579102</v>
+        <v>0.7460212677001953</v>
       </c>
       <c r="J54">
-        <v>76.83999633789062</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.8453025182088216</v>
-      </c>
-      <c r="D55">
-        <v>0.5868037939071655</v>
-      </c>
-      <c r="E55">
-        <v>55.39499664306641</v>
-      </c>
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>0</v>
       </c>
@@ -3554,28 +3716,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>4.013241961669922</v>
+        <v>1.19064344329834</v>
       </c>
       <c r="J55">
-        <v>43.61000061035156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.8424361723661423</v>
-      </c>
-      <c r="D56">
-        <v>0.5880871415138245</v>
-      </c>
-      <c r="E56">
-        <v>55.3849983215332</v>
-      </c>
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>1</v>
       </c>
@@ -3583,28 +3730,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.6287118492126464</v>
+        <v>0.7548107391357421</v>
       </c>
       <c r="J56">
-        <v>76.79000091552734</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.8397079573074977</v>
-      </c>
-      <c r="D57">
-        <v>0.5892877578735352</v>
-      </c>
-      <c r="E57">
-        <v>55.35500335693359</v>
-      </c>
+        <v>71.97</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>0</v>
       </c>
@@ -3612,28 +3744,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>4.175540924072266</v>
+        <v>1.170994215393066</v>
       </c>
       <c r="J57">
-        <v>41.05999755859375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.849104307492574</v>
-      </c>
-      <c r="D58">
-        <v>0.5835319757461548</v>
-      </c>
-      <c r="E58">
-        <v>55.40999603271484</v>
-      </c>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>1</v>
       </c>
@@ -3641,28 +3758,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.6245312049865722</v>
+        <v>0.7585371994018555</v>
       </c>
       <c r="J58">
-        <v>77.16999816894531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.8459886101881663</v>
-      </c>
-      <c r="D59">
-        <v>0.5844522714614868</v>
-      </c>
-      <c r="E59">
-        <v>55.40999603271484</v>
-      </c>
+        <v>71.92</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>0</v>
       </c>
@@ -3670,28 +3772,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>4.231393811035156</v>
+        <v>1.385532270812988</v>
       </c>
       <c r="J59">
-        <v>40.0099983215332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.8436721636851628</v>
-      </c>
-      <c r="D60">
-        <v>0.5853391885757446</v>
-      </c>
-      <c r="E60">
-        <v>55.38999938964844</v>
-      </c>
+        <v>55.31</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>1</v>
       </c>
@@ -3699,28 +3786,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.6187899932861328</v>
+        <v>0.7189330314636231</v>
       </c>
       <c r="J60">
-        <v>77.25999450683594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.8420416657129923</v>
-      </c>
-      <c r="D61">
-        <v>0.586086630821228</v>
-      </c>
-      <c r="E61">
-        <v>55.38999938964844</v>
-      </c>
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>0</v>
       </c>
@@ -3728,28 +3800,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>4.383029949951172</v>
+        <v>1.366981753540039</v>
       </c>
       <c r="J61">
-        <v>36.36000061035156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.8476361258824666</v>
-      </c>
-      <c r="D62">
-        <v>0.5865156650543213</v>
-      </c>
-      <c r="E62">
-        <v>55.37000274658203</v>
-      </c>
+        <v>55.81</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>1</v>
       </c>
@@ -3757,13 +3814,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.6177511116027832</v>
+        <v>0.7232931602478028</v>
       </c>
       <c r="J62">
-        <v>77.34999847412109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>72.40000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>0</v>
       </c>
@@ -3771,13 +3828,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>4.498389794921875</v>
+        <v>1.352081948852539</v>
       </c>
       <c r="J63">
-        <v>35.91999816894531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>1</v>
       </c>
@@ -3785,10 +3842,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.613387784576416</v>
+        <v>0.7262944236755371</v>
       </c>
       <c r="J64">
-        <v>77.13999938964844</v>
+        <v>72.43000000000001</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3799,10 +3856,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>4.53558193359375</v>
+        <v>1.349529528808594</v>
       </c>
       <c r="J65">
-        <v>35.64999771118164</v>
+        <v>56.15</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3813,10 +3870,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.6094183830261231</v>
+        <v>0.7286765869140625</v>
       </c>
       <c r="J66">
-        <v>77.51999664306641</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3827,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>4.623688000488281</v>
+        <v>1.340296522521973</v>
       </c>
       <c r="J67">
-        <v>34.16999816894531</v>
+        <v>56.35</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3841,10 +3898,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.6083908966064453</v>
+        <v>0.7305633949279785</v>
       </c>
       <c r="J68">
-        <v>77.38999938964844</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3855,10 +3912,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>4.632511651611328</v>
+        <v>1.400222236633301</v>
       </c>
       <c r="J69">
-        <v>35.05999755859375</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3869,10 +3926,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.6112530685424805</v>
+        <v>0.7142937614440918</v>
       </c>
       <c r="J70">
-        <v>77.47000122070312</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3883,10 +3940,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>4.747974267578125</v>
+        <v>1.397753157043457</v>
       </c>
       <c r="J71">
-        <v>33.14999771118164</v>
+        <v>54.93</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3897,10 +3954,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.6036373832702636</v>
+        <v>0.7156393829345703</v>
       </c>
       <c r="J72">
-        <v>77.69999694824219</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3911,10 +3968,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>4.723555926513672</v>
+        <v>1.392679449462891</v>
       </c>
       <c r="J73">
-        <v>33.89999771118164</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3925,10 +3982,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.6034758682250977</v>
+        <v>0.7168033027648926</v>
       </c>
       <c r="J74">
-        <v>77.8699951171875</v>
+        <v>72.54000000000001</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3939,10 +3996,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>4.791672314453125</v>
+        <v>1.389636698913574</v>
       </c>
       <c r="J75">
-        <v>34.05999755859375</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3953,10 +4010,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.5999853332519531</v>
+        <v>0.7177379455566406</v>
       </c>
       <c r="J76">
-        <v>77.75</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3967,10 +4024,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>4.899443829345703</v>
+        <v>1.387180906677246</v>
       </c>
       <c r="J77">
-        <v>31.79999923706055</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -3981,626 +4038,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.5999060928344726</v>
+        <v>0.7185113540649414</v>
       </c>
       <c r="J78">
-        <v>77.97999572753906</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>4.977767230224609</v>
-      </c>
-      <c r="J79">
-        <v>31.81999969482422</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>0.5994645141601562</v>
-      </c>
-      <c r="J80">
-        <v>77.79999542236328</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>40</v>
-      </c>
-      <c r="I81">
-        <v>4.936361950683594</v>
-      </c>
-      <c r="J81">
-        <v>32.61999893188477</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>0.59764619140625</v>
-      </c>
-      <c r="J82">
-        <v>78.04999542236328</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>4.71797680053711</v>
-      </c>
-      <c r="J83">
-        <v>33.73999786376953</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>0.6036124275207519</v>
-      </c>
-      <c r="J84">
-        <v>77.72000122070312</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>4.720759252929687</v>
-      </c>
-      <c r="J85">
-        <v>34.09000015258789</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.6033823143005371</v>
-      </c>
-      <c r="J86">
-        <v>77.93000030517578</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>4.783632946777344</v>
-      </c>
-      <c r="J87">
-        <v>33.52999877929688</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>0.6013792976379394</v>
-      </c>
-      <c r="J88">
-        <v>77.72999572753906</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>4.828630279541016</v>
-      </c>
-      <c r="J89">
-        <v>32.75</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>0.6012380325317382</v>
-      </c>
-      <c r="J90">
-        <v>77.72999572753906</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10">
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
-      <c r="I91">
-        <v>4.79627944946289</v>
-      </c>
-      <c r="J91">
-        <v>33.0099983215332</v>
-      </c>
-    </row>
-    <row r="92" spans="7:10">
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>45</v>
-      </c>
-      <c r="I92">
-        <v>0.6002787300109863</v>
-      </c>
-      <c r="J92">
-        <v>77.83999633789062</v>
-      </c>
-    </row>
-    <row r="93" spans="7:10">
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>46</v>
-      </c>
-      <c r="I93">
-        <v>4.738286743164062</v>
-      </c>
-      <c r="J93">
-        <v>33.16999816894531</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10">
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>46</v>
-      </c>
-      <c r="I94">
-        <v>0.6031173210144043</v>
-      </c>
-      <c r="J94">
-        <v>77.72000122070312</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>4.728272827148437</v>
-      </c>
-      <c r="J95">
-        <v>33.07999801635742</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>0.6026842811584473</v>
-      </c>
-      <c r="J96">
-        <v>77.70999908447266</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>4.757111309814453</v>
-      </c>
-      <c r="J97">
-        <v>32.93000030517578</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>0.6023166938781739</v>
-      </c>
-      <c r="J98">
-        <v>77.75999450683594</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>49</v>
-      </c>
-      <c r="I99">
-        <v>4.759655133056641</v>
-      </c>
-      <c r="J99">
-        <v>32.86000061035156</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>49</v>
-      </c>
-      <c r="I100">
-        <v>0.6012443305969238</v>
-      </c>
-      <c r="J100">
-        <v>77.79000091552734</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>4.771122583007813</v>
-      </c>
-      <c r="J101">
-        <v>32.95000076293945</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
-      </c>
-      <c r="I102">
-        <v>0.6007398803710937</v>
-      </c>
-      <c r="J102">
-        <v>77.77999877929688</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <v>4.743462774658203</v>
-      </c>
-      <c r="J103">
-        <v>33.09999847412109</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>51</v>
-      </c>
-      <c r="I104">
-        <v>0.6035572410583496</v>
-      </c>
-      <c r="J104">
-        <v>77.72000122070312</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>4.736171655273438</v>
-      </c>
-      <c r="J105">
-        <v>33.07999801635742</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.6030778366088867</v>
-      </c>
-      <c r="J106">
-        <v>77.80999755859375</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>4.744065142822266</v>
-      </c>
-      <c r="J107">
-        <v>33.0099983215332</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.6025905639648438</v>
-      </c>
-      <c r="J108">
-        <v>77.77999877929688</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>4.747703436279297</v>
-      </c>
-      <c r="J109">
-        <v>32.95999908447266</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>0.6024266082763672</v>
-      </c>
-      <c r="J110">
-        <v>77.80999755859375</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>55</v>
-      </c>
-      <c r="I111">
-        <v>4.755578637695312</v>
-      </c>
-      <c r="J111">
-        <v>32.88000106811523</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>55</v>
-      </c>
-      <c r="I112">
-        <v>0.602249454498291</v>
-      </c>
-      <c r="J112">
-        <v>77.83000183105469</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>56</v>
-      </c>
-      <c r="I113">
-        <v>4.745937451171875</v>
-      </c>
-      <c r="J113">
-        <v>33.11999893188477</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>56</v>
-      </c>
-      <c r="I114">
-        <v>0.6034739677429199</v>
-      </c>
-      <c r="J114">
-        <v>77.69999694824219</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>57</v>
-      </c>
-      <c r="I115">
-        <v>4.743469085693359</v>
-      </c>
-      <c r="J115">
-        <v>33.14999771118164</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>57</v>
-      </c>
-      <c r="I116">
-        <v>0.603344181060791</v>
-      </c>
-      <c r="J116">
-        <v>77.66999816894531</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>58</v>
-      </c>
-      <c r="I117">
-        <v>4.743457977294922</v>
-      </c>
-      <c r="J117">
-        <v>33.05999755859375</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>58</v>
-      </c>
-      <c r="I118">
-        <v>0.6032067123413086</v>
-      </c>
-      <c r="J118">
-        <v>77.72000122070312</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>59</v>
-      </c>
-      <c r="I119">
-        <v>4.741959130859375</v>
-      </c>
-      <c r="J119">
-        <v>33.04999923706055</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
-      <c r="I120">
-        <v>0.6030158973693848</v>
-      </c>
-      <c r="J120">
-        <v>77.72999572753906</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>60</v>
-      </c>
-      <c r="I121">
-        <v>4.743758489990235</v>
-      </c>
-      <c r="J121">
-        <v>33.02000045776367</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>60</v>
-      </c>
-      <c r="I122">
-        <v>0.6028810272216797</v>
-      </c>
-      <c r="J122">
-        <v>77.72000122070312</v>
+        <v>72.55</v>
       </c>
     </row>
   </sheetData>
